--- a/biology/Botanique/Eleocharis_quinqueflora/Eleocharis_quinqueflora.xlsx
+++ b/biology/Botanique/Eleocharis_quinqueflora/Eleocharis_quinqueflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scirpe pauciflore
-Eleocharis quinqueflora (Éléocharide à cinq fleurs), de nom commun Scirpe pauciflore, est une plante vivace du genre Eleocharis et de la famille des Cyperaceae[1].
+Eleocharis quinqueflora (Éléocharide à cinq fleurs), de nom commun Scirpe pauciflore, est une plante vivace du genre Eleocharis et de la famille des Cyperaceae.
 </t>
         </is>
       </c>
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Le scirpe pauciflore a une hauteur maximale de 40 centimètres. Eleocharis quinqueflora présente des rhizomes de 0,2–1 mm d'épaisseur. Les bourgeons au repos sont souvent présents sur les rhizomes, largement à étroitement ovoïdes, de 3–6 (–10) × 2–5 mm. Les feuilles ont les gaines distales foliaires brunes ou rougeâtre. L'apex est souvent rougeâtre[2]. 
-Appareil reproducteur
-L'épillet est lancéolé à ovale et mesure moins d'un centimètre de long. Il contient de deux à sept fleurs, chacune étant recouverte d'une bractée brune ou noire. Le fruit est un achène brun-jaune de deux ou trois millimètres de long[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le scirpe pauciflore a une hauteur maximale de 40 centimètres. Eleocharis quinqueflora présente des rhizomes de 0,2–1 mm d'épaisseur. Les bourgeons au repos sont souvent présents sur les rhizomes, largement à étroitement ovoïdes, de 3–6 (–10) × 2–5 mm. Les feuilles ont les gaines distales foliaires brunes ou rougeâtre. L'apex est souvent rougeâtre. 
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eleocharis quinqueflora est un résident des prairies humides, des tourbières, des sources chaudes et autres milieux humides. La plante est héliophile[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épillet est lancéolé à ovale et mesure moins d'un centimètre de long. Il contient de deux à sept fleurs, chacune étant recouverte d'une bractée brune ou noire. Le fruit est un achène brun-jaune de deux ou trois millimètres de long.
 </t>
         </is>
       </c>
@@ -574,10 +595,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleocharis quinqueflora est un résident des prairies humides, des tourbières, des sources chaudes et autres milieux humides. La plante est héliophile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eleocharis_quinqueflora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eleocharis_quinqueflora</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est originaire d'Europe, d'Amérique du Nord et d'Asie. On retrouve également des populations isolées en Argentine et au Chili.
 </t>
